--- a/documents/мой диплом/График безубыточности.xlsx
+++ b/documents/мой диплом/График безубыточности.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="18960" windowHeight="11580"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -57,9 +57,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -97,7 +97,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -167,7 +167,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -344,13 +344,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <oleObject progId="Excel.Chart.8" shapeId="1067" r:id="rId3"/>
